--- a/BrancheIntermediare/ig/StructureDefinition-fr-cda-parent-document.xlsx
+++ b/BrancheIntermediare/ig/StructureDefinition-fr-cda-parent-document.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T16:46:30+00:00</t>
+    <t>2025-12-03T16:47:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BrancheIntermediare/ig/StructureDefinition-fr-cda-parent-document.xlsx
+++ b/BrancheIntermediare/ig/StructureDefinition-fr-cda-parent-document.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T16:47:23+00:00</t>
+    <t>2025-12-04T14:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BrancheIntermediare/ig/StructureDefinition-fr-cda-parent-document.xlsx
+++ b/BrancheIntermediare/ig/StructureDefinition-fr-cda-parent-document.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T14:08:40+00:00</t>
+    <t>2025-12-05T10:50:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
